--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,51 +534,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.606130666666667</v>
+        <v>0.04408699999999999</v>
       </c>
       <c r="H2">
-        <v>7.818392</v>
+        <v>0.132261</v>
       </c>
       <c r="I2">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="J2">
-        <v>0.2943337015143609</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.49702</v>
+        <v>0.04819200000000001</v>
       </c>
       <c r="N2">
-        <v>4.49106</v>
+        <v>0.144576</v>
       </c>
       <c r="O2">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.901429730613333</v>
+        <v>0.002124640704</v>
       </c>
       <c r="R2">
-        <v>35.11286757552</v>
+        <v>0.019121766336</v>
       </c>
       <c r="S2">
-        <v>0.2851540357187419</v>
+        <v>0.007006504090795892</v>
       </c>
       <c r="T2">
-        <v>0.2851540357187419</v>
+        <v>0.007006504090795892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.606130666666667</v>
+        <v>6.019967333333334</v>
       </c>
       <c r="H3">
-        <v>7.818392</v>
+        <v>18.059902</v>
       </c>
       <c r="I3">
-        <v>0.2943337015143609</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="J3">
-        <v>0.2943337015143609</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,27 +620,27 @@
         <v>0.144576</v>
       </c>
       <c r="O3">
-        <v>0.03118795349764305</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.03118795349764305</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.125594649088</v>
+        <v>0.290114265728</v>
       </c>
       <c r="R3">
-        <v>1.130351841792</v>
+        <v>2.611028391552</v>
       </c>
       <c r="S3">
-        <v>0.009179665795619036</v>
+        <v>0.9567202519440571</v>
       </c>
       <c r="T3">
-        <v>0.009179665795619038</v>
+        <v>0.9567202519440571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.019967333333334</v>
+        <v>0.228242</v>
       </c>
       <c r="H4">
-        <v>18.059902</v>
+        <v>0.6847259999999999</v>
       </c>
       <c r="I4">
-        <v>0.6798888831164529</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="J4">
-        <v>0.6798888831164529</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.49702</v>
+        <v>0.04819200000000001</v>
       </c>
       <c r="N4">
-        <v>4.49106</v>
+        <v>0.144576</v>
       </c>
       <c r="O4">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.968812046502357</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>9.012011497346668</v>
+        <v>0.010999438464</v>
       </c>
       <c r="R4">
-        <v>81.10810347612001</v>
+        <v>0.09899494617599999</v>
       </c>
       <c r="S4">
-        <v>0.6586845402462526</v>
+        <v>0.03627324396514701</v>
       </c>
       <c r="T4">
-        <v>0.6586845402462526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>6.019967333333334</v>
-      </c>
-      <c r="H5">
-        <v>18.059902</v>
-      </c>
-      <c r="I5">
-        <v>0.6798888831164529</v>
-      </c>
-      <c r="J5">
-        <v>0.6798888831164529</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.04819200000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.144576</v>
-      </c>
-      <c r="O5">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="P5">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="Q5">
-        <v>0.290114265728</v>
-      </c>
-      <c r="R5">
-        <v>2.611028391552</v>
-      </c>
-      <c r="S5">
-        <v>0.0212043428702004</v>
-      </c>
-      <c r="T5">
-        <v>0.0212043428702004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.228242</v>
-      </c>
-      <c r="H6">
-        <v>0.6847259999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.02577741536918618</v>
-      </c>
-      <c r="J6">
-        <v>0.02577741536918618</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>1.49702</v>
-      </c>
-      <c r="N6">
-        <v>4.49106</v>
-      </c>
-      <c r="O6">
-        <v>0.968812046502357</v>
-      </c>
-      <c r="P6">
-        <v>0.968812046502357</v>
-      </c>
-      <c r="Q6">
-        <v>0.3416828388399999</v>
-      </c>
-      <c r="R6">
-        <v>3.07514554956</v>
-      </c>
-      <c r="S6">
-        <v>0.02497347053736257</v>
-      </c>
-      <c r="T6">
-        <v>0.02497347053736257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.228242</v>
-      </c>
-      <c r="H7">
-        <v>0.6847259999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.02577741536918618</v>
-      </c>
-      <c r="J7">
-        <v>0.02577741536918618</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.04819200000000001</v>
-      </c>
-      <c r="N7">
-        <v>0.144576</v>
-      </c>
-      <c r="O7">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="P7">
-        <v>0.03118795349764305</v>
-      </c>
-      <c r="Q7">
-        <v>0.010999438464</v>
-      </c>
-      <c r="R7">
-        <v>0.09899494617599999</v>
-      </c>
-      <c r="S7">
-        <v>0.0008039448318236077</v>
-      </c>
-      <c r="T7">
-        <v>0.0008039448318236077</v>
+        <v>0.03627324396514701</v>
       </c>
     </row>
   </sheetData>
